--- a/Output_testing/R1_201907/Country/HKD/MN/PAKISTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PAKISTAN_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2661.996368</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>64.76019411177977</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2200.916845</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>52.46524570880203</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>3879.904204</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>64.08832492825941</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2127.597482</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>65.50156078049396</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-16.34895169202741</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>198.313721</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4.824512618189018</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>492.395539</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.73767786740394</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>741.75732</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.25236027556182</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>406.567352</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.51683946032819</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-25.44832725307003</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>78.537081</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.910624924839331</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>146.343212</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.488515521537256</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>108.822945</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.797539292753658</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>78.073398</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.403616975345102</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-1.81005110170126</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>132.719186</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.228749802605818</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>123.418589</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.942040546251829</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>129.187071</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.133914279183095</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>72.402198</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.229019827792012</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-2.351348602924896</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>96.008259</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.335658141354018</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>140.18353</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.341681609864375</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>108.658144</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.794817106977624</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>66.84612300000001</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.057966991251062</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>10.38132776607088</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>85.34918</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.076347485114687</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>75.687759</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.804237575856071</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>92.97188800000001</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.535711258333362</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>48.809201</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.502670910732374</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-8.528243889695364</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>37.506035</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.91243479373643</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>39.162072</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.9335417349426466</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>47.077929</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7776340476630816</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>30.908632</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9515726798505023</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>21.98348157685723</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>17.743364</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.4316548702503583</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>21.584469</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5145285121296894</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>28.157462</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4651054456320585</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>27.092362</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.834082579643768</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>203.4479954633495</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>100.156914</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.436585289990461</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>93.644508</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.232288844833607</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>84.54033099999999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.3964386535845</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>27.004421</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8313751724366572</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-43.07073450045643</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>40.122469</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.9760865611683909</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>22.684468</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.54075018331438</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>34.893646</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5763738497651988</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>25.69053</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.7909248936957068</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>18.40103007231946</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>662.091569</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.10715140097172</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>838.978604</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>19.99949189506417</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>798.024399</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.18178086228619</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>337.171332</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>10.38036972843067</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-18.42047330121832</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,469 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>24.312198</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>42.54113159538338</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>19.288008</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>34.92440412342462</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>12.29367</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>25.59482979720393</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>7.103343</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>35.11017255646012</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-22.23750101809985</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>8.050432000000001</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>14.08652920281767</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>10.988454</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.89657035540745</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>10.219076</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.27562484633894</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>6.91709</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>34.18956729086076</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>21.10429856014342</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>5.717019</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>10.00355696396957</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>4.216184</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>7.634158689415563</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>3.383598</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>7.044488335229401</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.119412</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>15.41852809229293</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>64.37388618335147</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.395473</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.441778424591821</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.712959</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.101620051321905</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>2.975344</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.194523138178586</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.859313</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.24738432453697</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-51.17470418613901</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.795982</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.392797763886114</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.802697</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.453427145854594</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.884593</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.841680090225134</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.55183</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.727567361146912</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>16.44292328014416</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PULP AND WASTE PAPER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.703257891709007</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>4.469471</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>7.820615559841597</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>2.840136</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.142576539240688</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>1.534461</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.194674017233857</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.471822691464399</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-71.84807929388808</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>8.029567999999999</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>14.05002167809259</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>6.015933</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>10.89292763003034</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>11.765661</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>24.4955404485886</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.160972046623544</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-97.88402996336738</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>2.538923</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>4.442570657475954</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>3.569892</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>6.463930898669296</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>2.530693</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>5.268781137282473</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.047693702237111</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-91.62423099127393</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.06820474473093883</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.7633610047578585</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>371.4285714285714</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.840796</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>3.220998153941299</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.793617</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>10.49038456663555</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.411993</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>5.021653444988137</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>2.159673037910383</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-77.5518707373775</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1762,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2661.996368</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.67326495988122</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2200.916845</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>53.16517422990316</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>3879.904204</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>64.60086230061314</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2127.597482</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>65.91210237751486</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-16.34895169202741</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>198.313721</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.892534678474422</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>492.395539</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.89426791858739</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>741.745535</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.35015058341622</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>406.567352</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.59529077050258</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-25.44671615767773</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>78.537081</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.93756332341046</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>146.343212</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.535055120787017</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>108.822945</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.811914860641286</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>78.073398</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.418682032420484</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-1.81005110170126</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>128.249715</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.164007891022131</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>120.578453</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.912683628498099</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>127.65261</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.125431002245403</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>72.10442500000001</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.233765682973224</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-1.345584173705183</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>87.95782699999999</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.169979548922658</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>129.195076</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.120826096083416</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>98.43906800000001</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.639022084698021</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>59.929033</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.856577003827018</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>9.264666465636861</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>79.632161</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.964579693476471</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>71.471575</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.726461745246259</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>89.58829</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.491655587803115</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>45.689789</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.41545103134083</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-11.21663579022592</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>36.779678</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.9073797272863573</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>38.846814</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.9383805841090926</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>46.865442</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7803151330845003</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>30.864317</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9561639544730728</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>22.32709773023815</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>17.743364</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.4377408847207029</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>21.584469</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5213927357827749</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>28.157462</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4688250610727572</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>27.092362</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.839310326741914</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>203.4479954633495</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>100.156914</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.470939340772999</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>93.644508</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.262069371136809</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>84.54033099999999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.407606475476593</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>27.004421</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8365859504234515</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-43.07073450045643</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>65.703042</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.620938832902346</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>55.478558</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.340135684269247</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>38.939379</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.6483452499309149</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>23.414534</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.725372715086623</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-1.480153925438665</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>598.324413</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.76107111913024</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>769.3166660000001</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>18.58355288559673</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>761.308224</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.67587166101804</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>329.594337</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>10.21069815469594</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-14.25203975619511</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2220,471 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>345.62704</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>31.91858421914782</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>254.348515</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>28.06247735804935</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>200.547853</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>23.90683922257612</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>111.2025</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>22.49582404861154</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-11.70007495716935</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>322.454215</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>29.77857871969941</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>278.946864</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>30.77643309652848</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>267.697144</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>31.91154872124613</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>83.62519399999999</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.91704458312543</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-51.86448325582089</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>SHIPS, BOATS (INCLUDING HOVERCRAFT) AND FLOATING STRUCTURES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>44.3682</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.975510627491348</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>32.972492</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.670204163361899</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>75.63526</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.984900302496998</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>57.602282</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.355306357487376</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>60.415675</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>7.202010927279344</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>29.15599</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.898140968081451</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-5.977620886003532</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>12.092647</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.116753398987316</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>17.20224</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.897937051088074</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>27.975088</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.334844632085982</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>25.987352</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.257138086655725</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>99.46139169159804</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>13.505284</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.247210127880936</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>10.987275</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.212234936438145</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>13.873555</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.653833954684955</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>15.147772</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.064334107960563</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>109.7689142107284</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>133.400216</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>12.3194818011013</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>32.452011</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.580456618394915</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>45.102216</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.376529393679923</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>14.396298</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.912313902649475</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-53.86401690857112</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>7.179532</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6630282653697082</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>7.977772</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8801940365866892</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>17.73768</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.114467233620816</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>14.255875</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.883906887516019</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>59.94023953773993</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.448323</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.1726511881598609</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>13.210583</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.672448467863392</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>172.945313</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.97146316531652</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>246.848191</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>27.23496054542697</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>204.07477</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>24.32727472666686</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>110.002823</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>22.25313415668316</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>0.9110798237712103</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
